--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,97 +40,106 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>horrible</t>
+    <t>terrifying</t>
   </si>
   <si>
     <t>worst</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
     <t>insane</t>
   </si>
   <si>
-    <t>dangerous</t>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>weird</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>addicted</t>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>behind</t>
   </si>
   <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>behind</t>
+    <t>false</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>bad</t>
+    <t>serious</t>
   </si>
   <si>
     <t>black</t>
@@ -151,43 +160,49 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
+    <t>better</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>better</t>
+    <t>happy</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>top</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>high</t>
+  </si>
+  <si>
+    <t>2020</t>
   </si>
   <si>
     <t>first</t>
@@ -199,79 +214,73 @@
     <t>wow</t>
   </si>
   <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>social</t>
+    <t>many</t>
   </si>
   <si>
     <t>whole</t>
   </si>
   <si>
-    <t>many</t>
+    <t>right</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
-    <t>right</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>media</t>
   </si>
   <si>
+    <t>watching</t>
+  </si>
+  <si>
     <t>twitter</t>
   </si>
   <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>watching</t>
+    <t>watch</t>
   </si>
   <si>
     <t>’</t>
   </si>
   <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
     <t>documentary</t>
   </si>
   <si>
     <t>…</t>
-  </si>
-  <si>
-    <t>watched</t>
   </si>
   <si>
     <t>positive</t>
@@ -643,7 +652,7 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -704,10 +713,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -722,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -772,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -801,13 +810,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9666666666666667</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -819,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -851,13 +860,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9242424242424242</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C6">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -869,19 +878,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="L6">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -893,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -901,13 +910,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9230769230769231</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -919,19 +928,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>0.84</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L7">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M7">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -943,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -951,13 +960,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9134615384615384</v>
+        <v>0.9</v>
       </c>
       <c r="C8">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -969,19 +978,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K8">
-        <v>0.7543859649122807</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L8">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -993,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1022,16 +1031,16 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>0.7241379310344828</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="M9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1043,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1051,13 +1060,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1072,16 +1081,16 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K10">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="L10">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="M10">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1093,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1101,13 +1110,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7894736842105263</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1119,19 +1128,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K11">
-        <v>0.6</v>
+        <v>0.6933333333333334</v>
       </c>
       <c r="L11">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="M11">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1143,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1151,13 +1160,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7692307692307693</v>
+        <v>0.8</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1169,31 +1178,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K12">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L12">
+        <v>12</v>
+      </c>
+      <c r="M12">
+        <v>12</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>6</v>
-      </c>
-      <c r="M12">
-        <v>6</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1204,10 +1213,10 @@
         <v>0.75</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1219,31 +1228,31 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L13">
+        <v>8</v>
+      </c>
+      <c r="M13">
+        <v>8</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>4</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L13">
-        <v>7</v>
-      </c>
-      <c r="M13">
-        <v>7</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1254,10 +1263,10 @@
         <v>0.75</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1269,19 +1278,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K14">
-        <v>0.5789473684210527</v>
+        <v>0.6</v>
       </c>
       <c r="L14">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1293,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1301,37 +1310,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7333333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="L15">
         <v>11</v>
       </c>
-      <c r="D15">
+      <c r="M15">
         <v>11</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="L15">
-        <v>10</v>
-      </c>
-      <c r="M15">
-        <v>10</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1354,35 +1363,35 @@
         <v>0.7</v>
       </c>
       <c r="C16">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <v>28</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="L16">
         <v>7</v>
       </c>
-      <c r="D16">
+      <c r="M16">
         <v>7</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>3</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K16">
-        <v>0.5185185185185185</v>
-      </c>
-      <c r="L16">
-        <v>14</v>
-      </c>
-      <c r="M16">
-        <v>14</v>
-      </c>
       <c r="N16">
         <v>1</v>
       </c>
@@ -1393,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1401,13 +1410,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.675</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1419,31 +1428,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K17">
-        <v>0.4615384615384616</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L17">
+        <v>7</v>
+      </c>
+      <c r="M17">
+        <v>7</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>6</v>
-      </c>
-      <c r="M17">
-        <v>6</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1451,13 +1460,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6470588235294118</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1469,19 +1478,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K18">
-        <v>0.375</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1493,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1501,13 +1510,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6470588235294118</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1519,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K19">
+        <v>0.5</v>
+      </c>
+      <c r="L19">
         <v>6</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K19">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="L19">
-        <v>12</v>
-      </c>
       <c r="M19">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1543,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1551,13 +1560,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6086956521739131</v>
+        <v>0.65</v>
       </c>
       <c r="C20">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1569,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K20">
-        <v>0.3333333333333333</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L20">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M20">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1593,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1601,38 +1610,38 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K21">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="L21">
         <v>12</v>
       </c>
-      <c r="D21">
+      <c r="M21">
         <v>12</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>8</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L21">
-        <v>16</v>
-      </c>
-      <c r="M21">
-        <v>16</v>
-      </c>
       <c r="N21">
         <v>1</v>
       </c>
@@ -1643,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1651,7 +1660,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5625</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -1669,19 +1678,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K22">
-        <v>0.2711864406779661</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1693,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1701,13 +1710,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5531914893617021</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="C23">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D23">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1719,19 +1728,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K23">
-        <v>0.2522768670309654</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L23">
-        <v>277</v>
+        <v>16</v>
       </c>
       <c r="M23">
-        <v>277</v>
+        <v>16</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1743,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>821</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1751,13 +1760,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5454545454545454</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1772,16 +1781,16 @@
         <v>5</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K24">
-        <v>0.2307692307692308</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="L24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1793,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1801,13 +1810,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5428571428571428</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="D25">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1819,19 +1828,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K25">
-        <v>0.2195121951219512</v>
+        <v>0.2704918032786885</v>
       </c>
       <c r="L25">
-        <v>9</v>
+        <v>297</v>
       </c>
       <c r="M25">
-        <v>9</v>
+        <v>297</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1843,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>32</v>
+        <v>801</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1851,13 +1860,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5384615384615384</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1869,19 +1878,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K26">
-        <v>0.2173913043478261</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L26">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M26">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1893,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1901,37 +1910,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5217391304347826</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C27">
+        <v>16</v>
+      </c>
+      <c r="D27">
+        <v>16</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>12</v>
       </c>
-      <c r="D27">
-        <v>12</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>11</v>
-      </c>
       <c r="J27" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K27">
-        <v>0.2</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="L27">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M27">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1943,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1951,13 +1960,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1972,16 +1981,16 @@
         <v>7</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K28">
-        <v>0.1639344262295082</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L28">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M28">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1993,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2001,13 +2010,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2019,13 +2028,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K29">
-        <v>0.1549295774647887</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L29">
         <v>11</v>
@@ -2043,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2051,13 +2060,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3928571428571428</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D30">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2069,13 +2078,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K30">
-        <v>0.1481481481481481</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L30">
         <v>8</v>
@@ -2093,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2101,13 +2110,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3928571428571428</v>
+        <v>0.5</v>
       </c>
       <c r="C31">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2119,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K31">
-        <v>0.1473684210526316</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="L31">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M31">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2143,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2151,37 +2160,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.375</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>9</v>
       </c>
-      <c r="D32">
-        <v>9</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>15</v>
-      </c>
       <c r="J32" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K32">
-        <v>0.1333333333333333</v>
+        <v>0.1411764705882353</v>
       </c>
       <c r="L32">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M32">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2193,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2201,13 +2210,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.358974358974359</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D33">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2219,19 +2228,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K33">
-        <v>0.1296296296296296</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2243,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2251,7 +2260,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3571428571428572</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="C34">
         <v>10</v>
@@ -2269,19 +2278,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K34">
-        <v>0.1294117647058824</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L34">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M34">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2293,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>74</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2301,13 +2310,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1538461538461539</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C35">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2319,19 +2328,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K35">
-        <v>0.1044776119402985</v>
+        <v>0.1232876712328767</v>
       </c>
       <c r="L35">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M35">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2343,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2351,115 +2360,187 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.04040404040404041</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C36">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>13</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K36">
+        <v>0.1076923076923077</v>
+      </c>
+      <c r="L36">
+        <v>7</v>
+      </c>
+      <c r="M36">
+        <v>7</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>18</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K37">
+        <v>0.09859154929577464</v>
+      </c>
+      <c r="L37">
+        <v>7</v>
+      </c>
+      <c r="M37">
+        <v>7</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="C38">
+        <v>13</v>
+      </c>
+      <c r="D38">
+        <v>13</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>65</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K38">
+        <v>0.07368421052631578</v>
+      </c>
+      <c r="L38">
+        <v>7</v>
+      </c>
+      <c r="M38">
+        <v>7</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.04713804713804714</v>
+      </c>
+      <c r="C39">
         <v>14</v>
       </c>
-      <c r="E36">
-        <v>0.14</v>
-      </c>
-      <c r="F36">
-        <v>0.86</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>285</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K36">
-        <v>0.0821917808219178</v>
-      </c>
-      <c r="L36">
-        <v>6</v>
-      </c>
-      <c r="M36">
-        <v>6</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K37">
-        <v>0.06475903614457831</v>
-      </c>
-      <c r="L37">
-        <v>43</v>
-      </c>
-      <c r="M37">
-        <v>43</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K38">
-        <v>0.0583941605839416</v>
-      </c>
-      <c r="L38">
-        <v>8</v>
-      </c>
-      <c r="M38">
-        <v>8</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="D39">
+        <v>16</v>
+      </c>
+      <c r="E39">
+        <v>0.12</v>
+      </c>
+      <c r="F39">
+        <v>0.88</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>283</v>
+      </c>
       <c r="J39" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K39">
-        <v>0.04074074074074074</v>
+        <v>0.06325301204819277</v>
       </c>
       <c r="L39">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="M39">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2471,21 +2552,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>518</v>
+        <v>622</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K40">
-        <v>0.03519061583577713</v>
+        <v>0.05278592375366569</v>
       </c>
       <c r="L40">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M40">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2497,47 +2578,47 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K41">
-        <v>0.03461538461538462</v>
+        <v>0.05109489051094891</v>
       </c>
       <c r="L41">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="M41">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="N41">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>753</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K42">
-        <v>0.03409090909090909</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="L42">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M42">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2549,21 +2630,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>595</v>
+        <v>516</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K43">
-        <v>0.03174603174603174</v>
+        <v>0.04058441558441558</v>
       </c>
       <c r="L43">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M43">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2575,21 +2656,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>305</v>
+        <v>591</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K44">
-        <v>0.02826855123674912</v>
+        <v>0.03585147247119078</v>
       </c>
       <c r="L44">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="M44">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2601,21 +2682,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>275</v>
+        <v>753</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K45">
-        <v>0.02246543778801843</v>
+        <v>0.02826855123674912</v>
       </c>
       <c r="L45">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="M45">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2627,21 +2708,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>1697</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K46">
-        <v>0.02083333333333333</v>
+        <v>0.0184331797235023</v>
       </c>
       <c r="L46">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="M46">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2653,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>282</v>
+        <v>1704</v>
       </c>
     </row>
   </sheetData>
